--- a/ExcelFolder/SL示例.xlsx
+++ b/ExcelFolder/SL示例.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\data\Excel\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel2JsonTool\ExcelFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2F3AF7-3ACC-45C4-B5F3-D63C756C7F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05B9D27-9D38-4FE4-83D9-13741849F077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31620" yWindow="3990" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>字符串类型</t>
   </si>
   <si>
-    <t>整形</t>
-  </si>
-  <si>
     <t>浮点型</t>
   </si>
   <si>
@@ -96,12 +93,6 @@
   </si>
   <si>
     <t>浮点数列表</t>
-  </si>
-  <si>
-    <t>整形列表</t>
-  </si>
-  <si>
-    <t>字典-整形:字符串</t>
   </si>
   <si>
     <t>字典-字符串:浮点</t>
@@ -158,6 +149,15 @@
   </si>
   <si>
     <t>dict_values2</t>
+  </si>
+  <si>
+    <t>整型列表</t>
+  </si>
+  <si>
+    <t>整型</t>
+  </si>
+  <si>
+    <t>字典-整型:字符串</t>
   </si>
 </sst>
 </file>
@@ -563,7 +563,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
@@ -596,25 +596,25 @@
         <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -631,22 +631,22 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
@@ -695,22 +695,22 @@
         <v>14</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -741,19 +741,19 @@
         <v>0.5</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="J7" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelFolder/SL示例.xlsx
+++ b/ExcelFolder/SL示例.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel2JsonTool\ExcelFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05B9D27-9D38-4FE4-83D9-13741849F077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1AA596-458B-4B50-82DC-D1C459CE987A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31620" yWindow="3990" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3800" yWindow="3800" windowWidth="30180" windowHeight="16770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>编号</t>
   </si>
@@ -158,13 +158,22 @@
   </si>
   <si>
     <t>字典-整型:字符串</t>
+  </si>
+  <si>
+    <t>引用示例</t>
+  </si>
+  <si>
+    <t>[RefExample/id]ref_id</t>
+  </si>
+  <si>
+    <t>也可以加[RefExample]，这样会选择第一列非空数据</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +199,13 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -249,7 +265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -275,6 +291,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -557,13 +579,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
@@ -577,15 +599,19 @@
     <col min="7" max="8" width="10.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.33203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.6640625" style="1"/>
+    <col min="11" max="11" width="25" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="59" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="59" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="K1" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -616,8 +642,11 @@
       <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="K2" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -648,8 +677,11 @@
       <c r="J3" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="K3" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -680,8 +712,11 @@
       <c r="J4" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="K4" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -712,8 +747,11 @@
       <c r="J5" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="K5" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -726,8 +764,9 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="29" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="29" x14ac:dyDescent="0.4">
       <c r="B7" s="8">
         <v>1</v>
       </c>
@@ -754,14 +793,49 @@
       </c>
       <c r="J7" s="9" t="s">
         <v>31</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="29" x14ac:dyDescent="0.4">
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="8">
+        <v>10</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="11">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:J4" xr:uid="{622D2427-5848-49FD-BA4A-C37B97C70DC3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:K4" xr:uid="{622D2427-5848-49FD-BA4A-C37B97C70DC3}">
       <formula1>"optional,required,ignore"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:H3" xr:uid="{B6CD9228-583D-443F-B73E-B98F6AC064B8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:H3 K3" xr:uid="{B6CD9228-583D-443F-B73E-B98F6AC064B8}">
       <formula1>"string,int,float,bool,list(int),list(float),list(string)"</formula1>
     </dataValidation>
   </dataValidations>
